--- a/Testdata/TC_22.xlsx
+++ b/Testdata/TC_22.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="My Series" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>LR0AAB+LCAAAAAAAAAOlWVtvG8cV/isLPrVAyd0lLUsWRhvwJoUoKQokVVl5KYa7I3HqvbA7s5L4lgIJUqQpiqJwivSKPqUoUNdoEyC1e/kvgSW7T/0LPXPZG0nFomoI1s4535k5c+bcZoTeuQp844LEjEbhXsWuWRWDhG7k0fB8r5Lws6r9sPKOg7pXLvGPcIwDwgFsgFTIdq8Y3avMOJ/vmubl5WXtslGL4nOzblm2+XjQH7szEuAqDRnHoUsqmZT3dqmKg9peMCAce5hjJblX6Y17tTahbgdoAxzicxLXWgmjIWGsG3LKKWFCMiaYk3Zn8D21Madee1izkblCz5GthPqewpWQiq5xsCyZ0IA4dcveqVo71YY1se3dre3dRr22vWO/lwpmQNTHjI9JfEFdSRhzHMyluLXTsGx7a7tRR+ZaEMyVG8BBQ98bkQvKiNcmvs82soipD7Dpctj1Zsa0kFmQ1RPdX4WDGM9nE8p9spkao0HLCEKtSz6Jg/ajmLhgv3updEguh7E262TeB+5kRmO+6ODFxnMdMxIP58JIm4k6qBOFvOmTmB/P4ayJB64ADIfHCUHmLcxcqEOZC980TIjnnGGfFYVKTHQSxU/YHLvkEOLYFHNchn6EPXA4Thmnbr7oCgMdxdEcZoTFW5Hv7cOsGryGkc3cC8HEYtlWFD3JtVvHRPJU5fnCmQaYp/AVOhrPosth6C/GyZS5MZ0Sr9NK0Wt5SASklm4njEcBaJGTkKIVKF51MBhUF/APwnCZiTrEpQH2j3wwJXMaMFeJgJoJj84ob0d+EoQs1WyJik5gXxNyle0zG6MhHHEoTB+FvTDFK2OvZZUFRtFltuYqQ5qiQG4yNz30VcYyuAO09BBXOfJcxC73qQ9VongiBWrZN8YzQvhax1AcJBLivqg7TmtxmARTCLIpRNqFXJUhM+cj8FbweNDLsaCWVOXPxLJ25Q/okbFRN/Rux6VMBMsV1nJs4C2REOzJb/k4fALUE8pnh810L2s4SFngVvwqD0H8zn28kOTMSkUa6oWun3hEpYVeeCZdVOimDvVWNloh9SHSHYTDxWQxh+zM6C6Hj70K1OtdxmPoCCqOGyUhjxcifyBTQ98mw5JpKBfA/p1lzmLywwQakcV+ErrtyLv7ap6yznFI+d01jJJYJcW7i0jrifyYsA4RmUam/jvLu5vsicUbwYOQBFFI3btbG4wstPfusRGWRtWdJYiKrzvjfajuqviJWL+zWAxdJJS7jZZpMha5VDqrDg+vIG/eEjIdcoYTHzo4DoX2PMu9y2TUZE+WMUUSOo79NAM6oj9m0CC7XlBzoYUQTWDNjQJBMKEvPRkjs4gXfZBLuuF5H4fnCXQaWV5Zpmf5V1TJSYxDJraTNRZLqXg9CKV5SjU8jkpew0Q6gkpeEXCRuYRDExLMoxj7AzAM3ddup7smaEgGmM/0CGqbT9zUyGYumkmVNUsVfxtMFim1DRHwOk0uESVI7EW14jkmpyGxywGEpd/GPp3GKqumpXwdDw4sbxHT/Cs2t2G7mJ4BXMeg+n6XLESPng80XbqsnTKUA4tE6oxHD3bqW5a4d8gxkjseEewbXQhmToxeeEEYD0Bs1xgRRj34otjfNd4lU0KhCEoT6TK0sXRRDu2neV6q0gR9y5QyAPqNcwplZBWYcXIB55Tg2F8UgGqr/cgF3M2P/339m+evXnx+8/HTN19+8N9//OrVP392/exD+Lj569+uP/ml2qYCowme+kQqNGnt7FiNB+BnGQkJ45qyQfYSl0va6ansi7Mx0tc7OWh3e+2Dfkvmk4yYiquSYoqb4yJK8uFYbUIuJI/UTD1BQZxJmp/0uMQtlChH3OQuSBld5N8mqGzx+uXnr1/++VZpbbC817IfPdqq2vW3tmJwJ7ZXcFkr1i/VAAF+ULW2qvV6AbyEQSNVADI79TynYVuPrDpcvLNc7mWOvA60zNIzTfC5uSSnSG3VHmUuUBynTOn4EwiRjK1CoTDQLvrlT9785WkJpa2rKeVZQDnZxojFzHQgpz4cTYzx8HjU7hqT7lj4Sc4r4NTk3wDWq2fxVHKqMEyw/x0DijsUM6MCN6KKEZ0ZBLszYwGRWIjDkrOto6qF7jnlspYHcZTM1YkUBHLqGmSWTdZKrMk1kiftuZJ0ctYauNL1+u9frBPQG+nkDW32ClKkoRJHkQp8HbWf/evVVx+9evHi5vnPr7/6UWkGvU72OAB+DtFUHGZuDylP15slCjoZS2M+sb5fqC+aKC5SRxENOXPsh/IOpUcIRG0xm/yNegGUPDmxtBfQlyjoXcy6V1wHtnOIzDIB9JxjqLZRfvfMCCqH53b9z29/d/PrL24+ff7moz9df/zH608+ff3y92+e/UFF3c3T5zc/faaz/HIhkLqIG61qAg35SuIaIhoNUbuNr9//hRFG3ICWw0hkRvr6/c8KkwlFZXOSzwwtXaZIWYUVaFFYyBkFVTIdSnKZiGoA2qKENTKELmLRnLr5Iu9VxVQi7iTjW71JNWHEiKCb+jbspAzOhe8qp0VUST3atup2XXOVNmILU8wKpj/woyk0GSlDPkAsQUpS3yyQY+V6B/1hq9nPIUqJYeyRWLih+kBpSylKSo+lo9TVChTgQuPnJr54M1qBrbKymQtpzNSPL2dNT6S/9U8VJQRqJ3GsGqJQv+iPkzk0w+lD3e18+XhZ6H8PVa9a7Ijzca9T5sO4wIVCWGYLguTL1KRZKk31mHjnUe3soTBNPgRe6cETzKEf7VWndQF9ZWyKvNON4yhem3xyTgobQCcNGcXMLZ5h5JmqrtvLzyolpAkv+1A3P73DqEN8wjd70TZz6UF0cW9ZOPtNRXts6HvamJtdPTKz5BMUn/WFo/y/r/rK2ZpxDI2VeADc+Bk+vbiO4L67oTZqK1JQ3ABhdf1Ovk9jxh+LTKC/FOU0o5yqDvWxuHCpDzk+dRpbigAAszi7WVIzDV2u/rgS+X0a0A2vhVYa3+VJwJbzuWrhept5iigth+QKGszCDJAUpz+AsqHeUTaZTTks5NJMXrxdMno+45sqtj3FxCNTq+pOSb36wLN2qo8IaVRtG/7Hbr1uWVvi5VNPDpmDkssNFzHTA8v/6On8D6Sz3RUtHQAA</t>
+          <t>Jh8AAB+LCAAAAAAAAAOlWVtvI0kV/istP4GE0xcn2Tiq6ZVvyVrYSRR7yGRfULu7nBRpV5uu6iR+WyTQomURQmgWLVfxtAiJYQS70jLD5b+sJpnhib/AqUvfbGcnHUaRpuvc6tSpU+d8VUbvXs9C4xLHjET0Uc3esGoGpn4UEHr2qJbwad3err3rot61j8MjL/ZmmIOwAVqU7V4z8qh2zvl81zSvrq42rhobUXxmOpZlm0+Gg5F/jmdenVDGPerjWqYVvF2r5qJOMBti7gUe95Tmo1p/1N/oYOJ3gTb0qHeG4412wgjFjPUoJ5xgJjRj7HHc6Q6/oxbmOhvbGzYyV+i5ZDshYaDkSpKKruVgWjwmM+w6lmPVrZ26szm2nV2rues0N7aam++nipkgGniMj3B8SXxJGHFvNpfq1o6zaTtW02kic60Q2MoD4KLDMDjGl4ThoIPDkFWKiKk3sOVzWHW1YFrILOhqQw93YT/25udjwkNcVX0virEPgXrQ3Af46jDW8RvPB8Adn5OYL7reorKtxwzHh3MRjWqqLupGlLdCHPPHc9hUHMCeA8PlcYKReQczV+oS5sM3oQkO3KkXsqJSiYlOoviCzT0fH8CBNYWNKxpGXgCZxQnjxM8nXWGgoziag0WYvB2FwR5Y1cJrGJnlPoUQi2nbUXSRe7eOiWQOyGyAPZ15PBVfoaPReXR1SMPFKJkwPyYTHHTbqfRaHhInT2t3EsajGXiRk5CiFShBfTgc1hfwD87bMhN1sU9mXngUQiiZ2wBbJQJqJTyaEt6JwmRGWerZEhWdwLrG+DpbZzZGh7DFVIQ+on2ayqtgr2WVFY6jq2zOVYYMRYHcYn666auMZeEu0NJNXOXIfRGr3CMhtIPijhSo5dwYnWPM1yaG4iBR+fZEg3Hbi4NkNoFDNoGTdilnZcjM+QiyFTIe/HItaBp1+Te2rF35B35kbNSjwd1yKRPBdIW5XBt4SyQEawrboUcvgHpC+PlBK13LGg5SEbhTfpWH4PzOQ28hyVmUijTUp36YBFiVhT6dyhQVvqlNvZONVkgDOOku8uhivJhDGWZkl8PHoxo05l3GY2j9NdePEsrjhagfyNSib9NhyYTKCbzw3jrTGH8/AcSx2Euo34mC+88WqOg8poTf38MoiVVRvL+KjJ6ojwnrYlFpZOm/t75fZU0sriQ+o3gWUeLfP9oQZOF98ICFsPRU3VsDq/N1b/kQurtqfuKs31stBrgI7a7SNC3GIp/IZNXHIyjom3ccmS6eekkIUI1Doz3Lau8yGbXYxbJMkYQex2FaAV0BhBkgYT+YbfgAIQTa2/CjmSCYAEBPRsgsygsc5OMePRt49CwBpJHVlWV6Vn9FlxzHHmViORmwWCrF64VQWqcU4HFV8TpMZCKo4hUBF5lLcmiMZ/Mo9sIhBIbs6bTTqAkAydDj53oEvS3EfhpkM1fNtMqepY6/TUw2KbUMceB1mVwiSiGxFoW5c5mchsQqh3Asw44XkkmsqmraytfxYMNyiJjWX7G4inAx3QO4d0H3/TZeCDCeDzRdpqydMlQCi0Lqjo43d5wtq+EAshFjJFd8jL3Q6MFh5tjo00vM+AzUdo1jzEgAX8QLd4338AQTaIIyRLoNVdYu6qG9tM5LV1rgb5lSFgC8cUagjawKZpxcwT3FXhwuCoJqqYPIB7nbH//75jfPX7347Pajp2+++OF///GrV//82c2zH8HH7V//dvPxL9UylTAae5MQS4fG7Z0dq7EJeZaRkAiuKQFykPhc0k5PJS7Oxkjf4+Sg0+t39gdtWU8yYqquWooproiLKMmHI7UIOZHcUjPNBCXijtP6pMclbqFFueLKdonL0kX+XYoqFq9ffvb65Z/v1NYBy7GW3Wxu1W3nrVDMsWx7RS6DYoNSDxDCm3Vrq+44BeElGXSsGkAWp37gNmyraTkNy85qeZAl8jqhZZa2NPbOzCU9ReooeJSlQHGcMmXij+GIZGx1FAoDnaJf/OTNX56WpHR0NaVsBZyTMEZMZqYDafrgeGyMDh8fd3rGuDcSeZLzCnLK+NcI69mz81RKKkoTL/yWAc0dmplRgxtRzYimBvb8c2MBJ7FwDkvJto6qJnqgyWUv9+MomasdKSjk1DWSWTVZq7Gm1kiejOdK0clZa8SVrzd//3ydgl5INwe07vGwbcxolpeShkocRSrw9an99F+vvvzw1YsXt89/fvPlD0oW9DzZ4wDkOZym4jBLeyh5ut8sUdDJSAbzwvpuob9oorhIHUWEcuba2/IOpUcIVG1hTf6P+jNoedKwjBfQlyjoPY/1rrk+2O4BMssE8HPuQbeN8rtnRlA1PI/rf377u9tff377yfM3H/7p5qM/3nz8yeuXv3/z7A/q1N0+fX7702e6yi83AumLuNEqEGjIVxLfEKfREL3b+OqDXxg04gZADiORFemrDz4tGBOOSnCSWwZIlzlSdmFFtKgs9IyCK5kPJb1MRQGAjmhhjUxCN7FoTvx8kvfrwpQ4d5Lxjf64njBsRICmvgkrKQvnyvfV0yqqpR69Yzm2o7nKG7GEiccKod8PowmAjJQhHyCWREpaX6+Qy8r59geH7dYgF1FOHMYBjkUaqg/UZymoTNOrQAEugD0/CcU70YrYKgulX4XSZeoHl2krECVv/fNESQJ1kjhWIIjq5/pRMgcAnD7O3c2XD5YFzHug8GkRBefjfrfMh3GBC82vzBYEyZflSLNUaeoz8bajIOyBCE0+BF7pkRPCoV/kFbq6BCwZm6LW9OI4itcWnJyTig0BPUMVMfOIZzKmmFIh7SDfq5SQFrnsQ9329AqjLg4xr/xcnWoPo8sH68LeV1Xts8Mw0MGsdt3IwpIbKL7Zi0Sp6kwrjgE2iee9yo/sA0Iv+tVW7zYc27a2nAa2p1awOd2Zes2dprO17U/fsbcdH4CjNCpun8KEuLmIu1u1SQAsltXze/Yx3LwrWlMBloriLgqRkgdSF/ZsjPZIzPgTUaL0l6KcZpRTBZ2fCP/Uhxyfuo0tRQABsziZWfI6rS9c/bwThQMyIxXvq1ZahMpGIA3mc4Utq24o9LwDfA3It2ABqvXke9DP1ANPFWvqVEGRz/RTW6NkUtmcmSofAV8k1sO0ewHgsodryx9LSPh/OCCR10NN9CkjZ+e86r46zWYDb2On7kx9v74Jgzp040k98KZN27KmjWDLES/a2jh0B4KvKk4iegphcK+ormcu/drt/g+KIwQBJh8AAA==</t>
         </r>
       </text>
     </comment>
@@ -42,7 +42,7 @@
     <numFmt numFmtId="164" formatCode="d-MMM-yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="164" formatCode="d-MMM-yyyy"/>
-    <numFmt numFmtId="166" formatCode="###0.000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -523,7 +523,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Function Information</t>
+          <t>Function Description</t>
         </is>
       </c>
       <c r="B11" s="2"/>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="B21" s="2">
-        <v>0.2499825759175085</v>
+        <v>0.2499825759175076</v>
       </c>
     </row>
     <row r="22">
@@ -758,4 +758,37 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
+  <MetadataLink>
+    <MetadataLink>
+      <SheetId>My Series</SheetId>
+      <LinkPosRow>1</LinkPosRow>
+      <LinkPosCol>1</LinkPosCol>
+      <MetaDataSeries>
+        <MetadataSeries>
+          <InitRow>1</InitRow>
+          <InitCol>2</InitCol>
+          <EndRow>36</EndRow>
+          <EndCol>2</EndCol>
+          <Name>Real Estate Investment: Residential: Hebei</Name>
+          <DisplayName>Real Estate Investment: Residential: Hebei</DisplayName>
+          <SeriesId>310902301</SeriesId>
+          <Code>SR4825032</Code>
+          <Order>0</Order>
+        </MetadataSeries>
+      </MetaDataSeries>
+    </MetadataLink>
+  </MetadataLink>
+</MetadataExcelFile>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7991B533-53C2-4193-A2A6-3F93EA030E06}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Testdata/TC_22.xlsx
+++ b/Testdata/TC_22.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="My Series" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Jh8AAB+LCAAAAAAAAAOlWVtvI0kV/istP4GE0xcn2Tiq6ZVvyVrYSRR7yGRfULu7nBRpV5uu6iR+WyTQomURQmgWLVfxtAiJYQS70jLD5b+sJpnhib/AqUvfbGcnHUaRpuvc6tSpU+d8VUbvXs9C4xLHjET0Uc3esGoGpn4UEHr2qJbwad3err3rot61j8MjL/ZmmIOwAVqU7V4z8qh2zvl81zSvrq42rhobUXxmOpZlm0+Gg5F/jmdenVDGPerjWqYVvF2r5qJOMBti7gUe95Tmo1p/1N/oYOJ3gTb0qHeG4412wgjFjPUoJ5xgJjRj7HHc6Q6/oxbmOhvbGzYyV+i5ZDshYaDkSpKKruVgWjwmM+w6lmPVrZ26szm2nV2rues0N7aam++nipkgGniMj3B8SXxJGHFvNpfq1o6zaTtW02kic60Q2MoD4KLDMDjGl4ThoIPDkFWKiKk3sOVzWHW1YFrILOhqQw93YT/25udjwkNcVX0virEPgXrQ3Af46jDW8RvPB8Adn5OYL7reorKtxwzHh3MRjWqqLupGlLdCHPPHc9hUHMCeA8PlcYKReQczV+oS5sM3oQkO3KkXsqJSiYlOoviCzT0fH8CBNYWNKxpGXgCZxQnjxM8nXWGgoziag0WYvB2FwR5Y1cJrGJnlPoUQi2nbUXSRe7eOiWQOyGyAPZ15PBVfoaPReXR1SMPFKJkwPyYTHHTbqfRaHhInT2t3EsajGXiRk5CiFShBfTgc1hfwD87bMhN1sU9mXngUQiiZ2wBbJQJqJTyaEt6JwmRGWerZEhWdwLrG+DpbZzZGh7DFVIQ+on2ayqtgr2WVFY6jq2zOVYYMRYHcYn666auMZeEu0NJNXOXIfRGr3CMhtIPijhSo5dwYnWPM1yaG4iBR+fZEg3Hbi4NkNoFDNoGTdilnZcjM+QiyFTIe/HItaBp1+Te2rF35B35kbNSjwd1yKRPBdIW5XBt4SyQEawrboUcvgHpC+PlBK13LGg5SEbhTfpWH4PzOQ28hyVmUijTUp36YBFiVhT6dyhQVvqlNvZONVkgDOOku8uhivJhDGWZkl8PHoxo05l3GY2j9NdePEsrjhagfyNSib9NhyYTKCbzw3jrTGH8/AcSx2Euo34mC+88WqOg8poTf38MoiVVRvL+KjJ6ojwnrYlFpZOm/t75fZU0sriQ+o3gWUeLfP9oQZOF98ICFsPRU3VsDq/N1b/kQurtqfuKs31stBrgI7a7SNC3GIp/IZNXHIyjom3ccmS6eekkIUI1Doz3Lau8yGbXYxbJMkYQex2FaAV0BhBkgYT+YbfgAIQTa2/CjmSCYAEBPRsgsygsc5OMePRt49CwBpJHVlWV6Vn9FlxzHHmViORmwWCrF64VQWqcU4HFV8TpMZCKo4hUBF5lLcmiMZ/Mo9sIhBIbs6bTTqAkAydDj53oEvS3EfhpkM1fNtMqepY6/TUw2KbUMceB1mVwiSiGxFoW5c5mchsQqh3Asw44XkkmsqmraytfxYMNyiJjWX7G4inAx3QO4d0H3/TZeCDCeDzRdpqydMlQCi0Lqjo43d5wtq+EAshFjJFd8jL3Q6MFh5tjo00vM+AzUdo1jzEgAX8QLd4338AQTaIIyRLoNVdYu6qG9tM5LV1rgb5lSFgC8cUagjawKZpxcwT3FXhwuCoJqqYPIB7nbH//75jfPX7347Pajp2+++OF///GrV//82c2zH8HH7V//dvPxL9UylTAae5MQS4fG7Z0dq7EJeZaRkAiuKQFykPhc0k5PJS7Oxkjf4+Sg0+t39gdtWU8yYqquWooproiLKMmHI7UIOZHcUjPNBCXijtP6pMclbqFFueLKdonL0kX+XYoqFq9ffvb65Z/v1NYBy7GW3Wxu1W3nrVDMsWx7RS6DYoNSDxDCm3Vrq+44BeElGXSsGkAWp37gNmyraTkNy85qeZAl8jqhZZa2NPbOzCU9ReooeJSlQHGcMmXij+GIZGx1FAoDnaJf/OTNX56WpHR0NaVsBZyTMEZMZqYDafrgeGyMDh8fd3rGuDcSeZLzCnLK+NcI69mz81RKKkoTL/yWAc0dmplRgxtRzYimBvb8c2MBJ7FwDkvJto6qJnqgyWUv9+MomasdKSjk1DWSWTVZq7Gm1kiejOdK0clZa8SVrzd//3ydgl5INwe07vGwbcxolpeShkocRSrw9an99F+vvvzw1YsXt89/fvPlD0oW9DzZ4wDkOZym4jBLeyh5ut8sUdDJSAbzwvpuob9oorhIHUWEcuba2/IOpUcIVG1hTf6P+jNoedKwjBfQlyjoPY/1rrk+2O4BMssE8HPuQbeN8rtnRlA1PI/rf377u9tff377yfM3H/7p5qM/3nz8yeuXv3/z7A/q1N0+fX7702e6yi83AumLuNEqEGjIVxLfEKfREL3b+OqDXxg04gZADiORFemrDz4tGBOOSnCSWwZIlzlSdmFFtKgs9IyCK5kPJb1MRQGAjmhhjUxCN7FoTvx8kvfrwpQ4d5Lxjf64njBsRICmvgkrKQvnyvfV0yqqpR69Yzm2o7nKG7GEiccKod8PowmAjJQhHyCWREpaX6+Qy8r59geH7dYgF1FOHMYBjkUaqg/UZymoTNOrQAEugD0/CcU70YrYKgulX4XSZeoHl2krECVv/fNESQJ1kjhWIIjq5/pRMgcAnD7O3c2XD5YFzHug8GkRBefjfrfMh3GBC82vzBYEyZflSLNUaeoz8bajIOyBCE0+BF7pkRPCoV/kFbq6BCwZm6LW9OI4itcWnJyTig0BPUMVMfOIZzKmmFIh7SDfq5SQFrnsQ9329AqjLg4xr/xcnWoPo8sH68LeV1Xts8Mw0MGsdt3IwpIbKL7Zi0Sp6kwrjgE2iee9yo/sA0Iv+tVW7zYc27a2nAa2p1awOd2Zes2dprO17U/fsbcdH4CjNCpun8KEuLmIu1u1SQAsltXze/Yx3LwrWlMBloriLgqRkgdSF/ZsjPZIzPgTUaL0l6KcZpRTBZ2fCP/Uhxyfuo0tRQABsziZWfI6rS9c/bwThQMyIxXvq1ZahMpGIA3mc4Utq24o9LwDfA3It2ABqvXke9DP1ANPFWvqVEGRz/RTW6NkUtmcmSofAV8k1sO0ewHgsodryx9LSPh/OCCR10NN9CkjZ+e86r46zWYDb2On7kx9v74Jgzp040k98KZN27KmjWDLES/a2jh0B4KvKk4iegphcK+ormcu/drt/g+KIwQBJh8AAA==</t>
+          <t>LR0AAB+LCAAAAAAAAAOlWVtvG8cV/isLPrVAyd0lLUsWRhvwJoUoKQokVVl5KYa7I3HqvbA7s5L4lgIJUqQpiqJwivSKPqUoUNdoEyC1e/kvgSW7T/0LPXPZG0nFomoI1s4535k5c+bcZoTeuQp844LEjEbhXsWuWRWDhG7k0fB8r5Lws6r9sPKOg7pXLvGPcIwDwgFsgFTIdq8Y3avMOJ/vmubl5WXtslGL4nOzblm2+XjQH7szEuAqDRnHoUsqmZT3dqmKg9peMCAce5hjJblX6Y17tTahbgdoAxzicxLXWgmjIWGsG3LKKWFCMiaYk3Zn8D21Madee1izkblCz5GthPqewpWQiq5xsCyZ0IA4dcveqVo71YY1se3dre3dRr22vWO/lwpmQNTHjI9JfEFdSRhzHMyluLXTsGx7a7tRR+ZaEMyVG8BBQ98bkQvKiNcmvs82soipD7Dpctj1Zsa0kFmQ1RPdX4WDGM9nE8p9spkao0HLCEKtSz6Jg/ajmLhgv3updEguh7E262TeB+5kRmO+6ODFxnMdMxIP58JIm4k6qBOFvOmTmB/P4ayJB64ADIfHCUHmLcxcqEOZC980TIjnnGGfFYVKTHQSxU/YHLvkEOLYFHNchn6EPXA4Thmnbr7oCgMdxdEcZoTFW5Hv7cOsGryGkc3cC8HEYtlWFD3JtVvHRPJU5fnCmQaYp/AVOhrPosth6C/GyZS5MZ0Sr9NK0Wt5SASklm4njEcBaJGTkKIVKF51MBhUF/APwnCZiTrEpQH2j3wwJXMaMFeJgJoJj84ob0d+EoQs1WyJik5gXxNyle0zG6MhHHEoTB+FvTDFK2OvZZUFRtFltuYqQ5qiQG4yNz30VcYyuAO09BBXOfJcxC73qQ9VongiBWrZN8YzQvhax1AcJBLivqg7TmtxmARTCLIpRNqFXJUhM+cj8FbweNDLsaCWVOXPxLJ25Q/okbFRN/Rux6VMBMsV1nJs4C2REOzJb/k4fALUE8pnh810L2s4SFngVvwqD0H8zn28kOTMSkUa6oWun3hEpYVeeCZdVOimDvVWNloh9SHSHYTDxWQxh+zM6C6Hj70K1OtdxmPoCCqOGyUhjxcifyBTQ98mw5JpKBfA/p1lzmLywwQakcV+ErrtyLv7ap6yznFI+d01jJJYJcW7i0jrifyYsA4RmUam/jvLu5vsicUbwYOQBFFI3btbG4wstPfusRGWRtWdJYiKrzvjfajuqviJWL+zWAxdJJS7jZZpMha5VDqrDg+vIG/eEjIdcoYTHzo4DoX2PMu9y2TUZE+WMUUSOo79NAM6oj9m0CC7XlBzoYUQTWDNjQJBMKEvPRkjs4gXfZBLuuF5H4fnCXQaWV5Zpmf5V1TJSYxDJraTNRZLqXg9CKV5SjU8jkpew0Q6gkpeEXCRuYRDExLMoxj7AzAM3ddup7smaEgGmM/0CGqbT9zUyGYumkmVNUsVfxtMFim1DRHwOk0uESVI7EW14jkmpyGxywGEpd/GPp3GKqumpXwdDw4sbxHT/Cs2t2G7mJ4BXMeg+n6XLESPng80XbqsnTKUA4tE6oxHD3bqW5a4d8gxkjseEewbXQhmToxeeEEYD0Bs1xgRRj34otjfNd4lU0KhCEoT6TK0sXRRDu2neV6q0gR9y5QyAPqNcwplZBWYcXIB55Tg2F8UgGqr/cgF3M2P/339m+evXnx+8/HTN19+8N9//OrVP392/exD+Lj569+uP/ml2qYCowme+kQqNGnt7FiNB+BnGQkJ45qyQfYSl0va6ansi7Mx0tc7OWh3e+2Dfkvmk4yYiquSYoqb4yJK8uFYbUIuJI/UTD1BQZxJmp/0uMQtlChH3OQuSBld5N8mqGzx+uXnr1/++VZpbbC817IfPdqq2vW3tmJwJ7ZXcFkr1i/VAAF+ULW2qvV6AbyEQSNVADI79TynYVuPrDpcvLNc7mWOvA60zNIzTfC5uSSnSG3VHmUuUBynTOn4EwiRjK1CoTDQLvrlT9785WkJpa2rKeVZQDnZxojFzHQgpz4cTYzx8HjU7hqT7lj4Sc4r4NTk3wDWq2fxVHKqMEyw/x0DijsUM6MCN6KKEZ0ZBLszYwGRWIjDkrOto6qF7jnlspYHcZTM1YkUBHLqGmSWTdZKrMk1kiftuZJ0ctYauNL1+u9frBPQG+nkDW32ClKkoRJHkQp8HbWf/evVVx+9evHi5vnPr7/6UWkGvU72OAB+DtFUHGZuDylP15slCjoZS2M+sb5fqC+aKC5SRxENOXPsh/IOpUcIRG0xm/yNegGUPDmxtBfQlyjoXcy6V1wHtnOIzDIB9JxjqLZRfvfMCCqH53b9z29/d/PrL24+ff7moz9df/zH608+ff3y92+e/UFF3c3T5zc/faaz/HIhkLqIG61qAg35SuIaIhoNUbuNr9//hRFG3ICWw0hkRvr6/c8KkwlFZXOSzwwtXaZIWYUVaFFYyBkFVTIdSnKZiGoA2qKENTKELmLRnLr5Iu9VxVQi7iTjW71JNWHEiKCb+jbspAzOhe8qp0VUST3atup2XXOVNmILU8wKpj/woyk0GSlDPkAsQUpS3yyQY+V6B/1hq9nPIUqJYeyRWLih+kBpSylKSo+lo9TVChTgQuPnJr54M1qBrbKymQtpzNSPL2dNT6S/9U8VJQRqJ3GsGqJQv+iPkzk0w+lD3e18+XhZ6H8PVa9a7Ijzca9T5sO4wIVCWGYLguTL1KRZKk31mHjnUe3soTBNPgRe6cETzKEf7VWndQF9ZWyKvNON4yhem3xyTgobQCcNGcXMLZ5h5JmqrtvLzyolpAkv+1A3P73DqEN8wjd70TZz6UF0cW9ZOPtNRXts6HvamJtdPTKz5BMUn/WFo/y/r/rK2ZpxDI2VeADc+Bk+vbiO4L67oTZqK1JQ3ABhdf1Ovk9jxh+LTKC/FOU0o5yqDvWxuHCpDzk+dRpbigAAszi7WVIzDV2u/rgS+X0a0A2vhVYa3+VJwJbzuWrhept5iigth+QKGszCDJAUpz+AsqHeUTaZTTks5NJMXrxdMno+45sqtj3FxCNTq+pOSb36wLN2qo8IaVRtG/7Hbr1uWVvi5VNPDpmDkssNFzHTA8v/6On8D6Sz3RUtHQAA</t>
         </r>
       </text>
     </comment>
@@ -42,7 +42,7 @@
     <numFmt numFmtId="164" formatCode="d-MMM-yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="164" formatCode="d-MMM-yyyy"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="###0.000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -523,7 +523,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Function Description</t>
+          <t>Function Information</t>
         </is>
       </c>
       <c r="B11" s="2"/>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="B21" s="2">
-        <v>0.2499825759175076</v>
+        <v>0.2499825759175085</v>
       </c>
     </row>
     <row r="22">
@@ -758,37 +758,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
-  <MetadataLink>
-    <MetadataLink>
-      <SheetId>My Series</SheetId>
-      <LinkPosRow>1</LinkPosRow>
-      <LinkPosCol>1</LinkPosCol>
-      <MetaDataSeries>
-        <MetadataSeries>
-          <InitRow>1</InitRow>
-          <InitCol>2</InitCol>
-          <EndRow>36</EndRow>
-          <EndCol>2</EndCol>
-          <Name>Real Estate Investment: Residential: Hebei</Name>
-          <DisplayName>Real Estate Investment: Residential: Hebei</DisplayName>
-          <SeriesId>310902301</SeriesId>
-          <Code>SR4825032</Code>
-          <Order>0</Order>
-        </MetadataSeries>
-      </MetaDataSeries>
-    </MetadataLink>
-  </MetadataLink>
-</MetadataExcelFile>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7991B533-53C2-4193-A2A6-3F93EA030E06}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>